--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1407025.266273385</v>
+        <v>1402686.254206646</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22012922.2514336</v>
+        <v>22012922.25143359</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7098937.042053144</v>
+        <v>7098937.042053143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5590318.149501382</v>
+        <v>5590318.149501383</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>14.00138902217719</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>347.4138051342813</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1502,10 +1502,10 @@
         <v>87.09445372222319</v>
       </c>
       <c r="T12" t="n">
-        <v>153.4484244137338</v>
+        <v>153.4484244137337</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3071174306206</v>
+        <v>195.3071174306205</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1530,22 +1530,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>157.7183506995397</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>88.28603573286843</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.9411860548871</v>
@@ -1584,10 +1584,10 @@
         <v>233.3317950548276</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9213814272745</v>
+        <v>124.6861526224754</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>88.49284952069368</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>157.7846457725452</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13.60566183130834</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1694,7 +1694,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475955</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
@@ -1739,10 +1739,10 @@
         <v>87.09445372222319</v>
       </c>
       <c r="T15" t="n">
-        <v>153.4484244137338</v>
+        <v>153.4484244137337</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3071174306206</v>
+        <v>195.3071174306205</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -1785,7 +1785,7 @@
         <v>140.1594986563935</v>
       </c>
       <c r="I16" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.213987403317715</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S16" t="n">
-        <v>168.9411860548871</v>
+        <v>8.382946571926913</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>189.7606270909961</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3303768639121</v>
+        <v>220.7158880296729</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>174.5627220424965</v>
       </c>
       <c r="Y18" t="n">
         <v>157.8079400398083</v>
@@ -2004,13 +2004,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.1594986563935</v>
+        <v>95.59436889957057</v>
       </c>
       <c r="I19" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>233.3317950548276</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2067,7 +2067,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>22.06522818041229</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>182.009932728962</v>
       </c>
       <c r="H20" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T20" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V20" t="n">
-        <v>247.6375500035032</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>164.6835037092309</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>233.3317950548276</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>77.94066587012641</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.39065284176073</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>396.5824282462429</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>88.49284952069368</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U23" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V23" t="n">
-        <v>13.59623696037591</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>38.69817546995245</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>55.38587376472241</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H25" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.9411860548871</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2575,7 +2575,7 @@
         <v>287.3796452813201</v>
       </c>
       <c r="I26" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.12009653018765</v>
+        <v>50.67829862287359</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2724,16 +2724,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>28.80097320324039</v>
       </c>
       <c r="G28" t="n">
-        <v>152.2662742453122</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H28" t="n">
         <v>140.1594986563935</v>
       </c>
       <c r="I28" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>44.20525872441496</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U28" t="n">
         <v>279.9213814272745</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>64.74510419820466</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>338.3935404293379</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>87.33198415495858</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H31" t="n">
         <v>140.1594986563935</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>44.20525872441496</v>
       </c>
       <c r="S31" t="n">
-        <v>7.220514923353503</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T31" t="n">
         <v>233.3317950548276</v>
@@ -3009,13 +3009,13 @@
         <v>279.9213814272745</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3037,10 +3037,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4472693586144481</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>402.6471267764352</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>127.0416837072368</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>86.87595201785842</v>
       </c>
       <c r="G34" t="n">
         <v>164.6835037092309</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.9411860548871</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.56055779060134</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T35" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>224.25948316821</v>
       </c>
       <c r="W35" t="n">
-        <v>148.7910290214375</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3401,7 +3401,7 @@
         <v>153.4484244137338</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3071174306206</v>
+        <v>195.3071174306205</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3429,22 +3429,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>66.89917804555866</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>122.2711593711059</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T37" t="n">
         <v>233.3317950548276</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>251.3511258666809</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>181.3733765053706</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>132.655120538544</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
@@ -3596,7 +3596,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.8533946561527</v>
+        <v>104.8533946561529</v>
       </c>
       <c r="H39" t="n">
         <v>59.73653548534391</v>
@@ -3672,7 +3672,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.6835037092309</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>6.679175051855731</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.6699764188703</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>154.1021228038385</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>139.6949905629656</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>132.655120538544</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -3915,7 +3915,7 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H43" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.9411860548871</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>147.2542804219318</v>
+        <v>60.47215019286693</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H44" t="n">
         <v>287.3796452813201</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.49284952069368</v>
+        <v>84.52466813740587</v>
       </c>
       <c r="T44" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>141.1389207622362</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.8533946561529</v>
+        <v>104.8533946561527</v>
       </c>
       <c r="H45" t="n">
-        <v>59.73653548534391</v>
+        <v>59.73653548534411</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>114.920221536621</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I46" t="n">
         <v>88.28603573286843</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U46" t="n">
         <v>279.9213814272745</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>145.538643597082</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>868.3533666138476</v>
+        <v>1282.693582096951</v>
       </c>
       <c r="C11" t="n">
-        <v>868.3533666138476</v>
+        <v>1282.693582096951</v>
       </c>
       <c r="D11" t="n">
-        <v>868.3533666138476</v>
+        <v>1282.693582096951</v>
       </c>
       <c r="E11" t="n">
         <v>868.3533666138476</v>
@@ -5032,37 +5032,37 @@
         <v>447.3229545675351</v>
       </c>
       <c r="G11" t="n">
-        <v>40.60868509638841</v>
+        <v>40.6086850963884</v>
       </c>
       <c r="H11" t="n">
-        <v>40.60868509638841</v>
+        <v>40.6086850963884</v>
       </c>
       <c r="I11" t="n">
-        <v>40.60868509638841</v>
+        <v>40.6086850963884</v>
       </c>
       <c r="J11" t="n">
-        <v>135.553658593597</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K11" t="n">
-        <v>298.4006618101654</v>
+        <v>625.1764886978946</v>
       </c>
       <c r="L11" t="n">
-        <v>800.9331398779719</v>
+        <v>842.1478096575601</v>
       </c>
       <c r="M11" t="n">
-        <v>1055.18166250833</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N11" t="n">
-        <v>1315.412784436921</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O11" t="n">
-        <v>1555.74087278304</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P11" t="n">
-        <v>1746.882430651743</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q11" t="n">
-        <v>1992.87803497895</v>
+        <v>1912.126487733579</v>
       </c>
       <c r="R11" t="n">
         <v>2030.43425481942</v>
@@ -5071,22 +5071,22 @@
         <v>2030.43425481942</v>
       </c>
       <c r="T11" t="n">
-        <v>2030.43425481942</v>
+        <v>2016.291437625302</v>
       </c>
       <c r="U11" t="n">
-        <v>2030.43425481942</v>
+        <v>2016.291437625302</v>
       </c>
       <c r="V11" t="n">
-        <v>2030.43425481942</v>
+        <v>1666.453882961782</v>
       </c>
       <c r="W11" t="n">
-        <v>1679.511219330247</v>
+        <v>1282.693582096951</v>
       </c>
       <c r="X11" t="n">
-        <v>1679.511219330247</v>
+        <v>1282.693582096951</v>
       </c>
       <c r="Y11" t="n">
-        <v>1278.574546278337</v>
+        <v>1282.693582096951</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>687.2060646415979</v>
+        <v>687.2060646415981</v>
       </c>
       <c r="C12" t="n">
-        <v>553.2109933905436</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D12" t="n">
         <v>436.3138356099362</v>
@@ -5108,37 +5108,37 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F12" t="n">
-        <v>206.8611397847687</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G12" t="n">
         <v>100.9486199300691</v>
       </c>
       <c r="H12" t="n">
-        <v>40.60868509638841</v>
+        <v>40.6086850963884</v>
       </c>
       <c r="I12" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456042</v>
       </c>
       <c r="J12" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K12" t="n">
-        <v>448.4817711975033</v>
+        <v>851.7642360961712</v>
       </c>
       <c r="L12" t="n">
-        <v>622.2470025288444</v>
+        <v>1025.529467427512</v>
       </c>
       <c r="M12" t="n">
-        <v>886.5429879661488</v>
+        <v>1236.144828024485</v>
       </c>
       <c r="N12" t="n">
-        <v>1108.568211643436</v>
+        <v>1458.170051701773</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.678898104414</v>
+        <v>1652.28073816275</v>
       </c>
       <c r="P12" t="n">
-        <v>1450.639945261231</v>
+        <v>1800.241785319567</v>
       </c>
       <c r="Q12" t="n">
         <v>1935.300869346252</v>
@@ -5162,10 +5162,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X12" t="n">
-        <v>986.9110569133545</v>
+        <v>986.9110569133547</v>
       </c>
       <c r="Y12" t="n">
-        <v>827.5090972771845</v>
+        <v>827.5090972771848</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>591.5840306207979</v>
+        <v>294.4176248573814</v>
       </c>
       <c r="C13" t="n">
-        <v>432.2725652677275</v>
+        <v>294.4176248573814</v>
       </c>
       <c r="D13" t="n">
-        <v>432.2725652677275</v>
+        <v>294.4176248573814</v>
       </c>
       <c r="E13" t="n">
-        <v>271.361750136047</v>
+        <v>294.4176248573814</v>
       </c>
       <c r="F13" t="n">
-        <v>271.361750136047</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="G13" t="n">
-        <v>271.361750136047</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="H13" t="n">
         <v>129.7864989679727</v>
       </c>
       <c r="I13" t="n">
-        <v>40.60868509638841</v>
+        <v>40.6086850963884</v>
       </c>
       <c r="J13" t="n">
-        <v>52.29045199975552</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7147646564052</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L13" t="n">
-        <v>701.2525880677155</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M13" t="n">
-        <v>1108.983026439427</v>
+        <v>1194.314693290098</v>
       </c>
       <c r="N13" t="n">
-        <v>1193.283917589609</v>
+        <v>1278.61558444028</v>
       </c>
       <c r="O13" t="n">
-        <v>1577.997393468527</v>
+        <v>1663.329060319198</v>
       </c>
       <c r="P13" t="n">
         <v>1890.762731023884</v>
@@ -5223,28 +5223,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R13" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S13" t="n">
-        <v>1815.134815648408</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T13" t="n">
-        <v>1579.446133774845</v>
+        <v>1624.097910264152</v>
       </c>
       <c r="U13" t="n">
-        <v>1296.697263646284</v>
+        <v>1498.152301554581</v>
       </c>
       <c r="V13" t="n">
-        <v>1296.697263646284</v>
+        <v>1224.266556494103</v>
       </c>
       <c r="W13" t="n">
-        <v>1017.627599155159</v>
+        <v>945.1968920029776</v>
       </c>
       <c r="X13" t="n">
-        <v>779.2837370148422</v>
+        <v>706.8530298626611</v>
       </c>
       <c r="Y13" t="n">
-        <v>779.2837370148422</v>
+        <v>482.1173312514258</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1577.466890709434</v>
+        <v>1167.342300022704</v>
       </c>
       <c r="C14" t="n">
         <v>1167.342300022704</v>
@@ -5278,25 +5278,25 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J14" t="n">
-        <v>135.553658593597</v>
+        <v>416.0853656505564</v>
       </c>
       <c r="K14" t="n">
-        <v>298.4006618101654</v>
+        <v>578.9323688671249</v>
       </c>
       <c r="L14" t="n">
-        <v>515.371982769831</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M14" t="n">
-        <v>769.6205054001888</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N14" t="n">
-        <v>1029.85162732878</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O14" t="n">
-        <v>1270.179715674899</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P14" t="n">
-        <v>1461.321273543602</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q14" t="n">
         <v>1865.882367902809</v>
@@ -5308,22 +5308,22 @@
         <v>1941.047538131851</v>
       </c>
       <c r="T14" t="n">
-        <v>1941.047538131851</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U14" t="n">
-        <v>1941.047538131851</v>
+        <v>1568.278973074614</v>
       </c>
       <c r="V14" t="n">
-        <v>1591.209983468332</v>
+        <v>1568.278973074614</v>
       </c>
       <c r="W14" t="n">
-        <v>1577.466890709434</v>
+        <v>1568.278973074614</v>
       </c>
       <c r="X14" t="n">
-        <v>1577.466890709434</v>
+        <v>1568.278973074614</v>
       </c>
       <c r="Y14" t="n">
-        <v>1577.466890709434</v>
+        <v>1167.342300022704</v>
       </c>
     </row>
     <row r="15">
@@ -5336,10 +5336,10 @@
         <v>687.2060646415983</v>
       </c>
       <c r="C15" t="n">
-        <v>553.210993390544</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D15" t="n">
-        <v>436.3138356099364</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E15" t="n">
         <v>315.8210196022642</v>
@@ -5360,25 +5360,25 @@
         <v>349.2317580283648</v>
       </c>
       <c r="K15" t="n">
-        <v>464.5090923956754</v>
+        <v>851.7642360961713</v>
       </c>
       <c r="L15" t="n">
-        <v>638.2743237270165</v>
+        <v>1025.529467427512</v>
       </c>
       <c r="M15" t="n">
-        <v>848.8896843239895</v>
+        <v>1236.144828024485</v>
       </c>
       <c r="N15" t="n">
-        <v>1070.914908001277</v>
+        <v>1458.170051701773</v>
       </c>
       <c r="O15" t="n">
-        <v>1390.648614581395</v>
+        <v>1652.28073816275</v>
       </c>
       <c r="P15" t="n">
-        <v>1538.609661738212</v>
+        <v>1800.241785319567</v>
       </c>
       <c r="Q15" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R15" t="n">
         <v>2030.43425481942</v>
@@ -5393,7 +5393,7 @@
         <v>1590.1817340451</v>
       </c>
       <c r="V15" t="n">
-        <v>1376.470207038133</v>
+        <v>1376.470207038134</v>
       </c>
       <c r="W15" t="n">
         <v>1163.237038774462</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>602.3398494691234</v>
+        <v>1004.660867844593</v>
       </c>
       <c r="C16" t="n">
-        <v>602.3398494691234</v>
+        <v>833.5674954063095</v>
       </c>
       <c r="D16" t="n">
-        <v>602.3398494691234</v>
+        <v>674.0728507292195</v>
       </c>
       <c r="E16" t="n">
-        <v>602.3398494691234</v>
+        <v>513.162035597539</v>
       </c>
       <c r="F16" t="n">
-        <v>437.7087235797146</v>
+        <v>348.5309097081303</v>
       </c>
       <c r="G16" t="n">
-        <v>271.361750136047</v>
+        <v>182.1839362644627</v>
       </c>
       <c r="H16" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I16" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J16" t="n">
-        <v>117.2918156310919</v>
+        <v>52.29045199975552</v>
       </c>
       <c r="K16" t="n">
-        <v>168.4359347020275</v>
+        <v>103.4345710706911</v>
       </c>
       <c r="L16" t="n">
-        <v>559.9737581133377</v>
+        <v>494.9723944820013</v>
       </c>
       <c r="M16" t="n">
-        <v>988.0344997043835</v>
+        <v>923.0331360730472</v>
       </c>
       <c r="N16" t="n">
-        <v>1404.369692302151</v>
+        <v>1339.368328670815</v>
       </c>
       <c r="O16" t="n">
-        <v>1789.08316818107</v>
+        <v>1724.081804549733</v>
       </c>
       <c r="P16" t="n">
         <v>2017.036691229721</v>
@@ -5460,28 +5460,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R16" t="n">
-        <v>2021.127196836271</v>
+        <v>1985.782478330112</v>
       </c>
       <c r="S16" t="n">
-        <v>1850.479534154567</v>
+        <v>1977.314855530186</v>
       </c>
       <c r="T16" t="n">
-        <v>1850.479534154567</v>
+        <v>1741.626173656623</v>
       </c>
       <c r="U16" t="n">
-        <v>1567.730664026007</v>
+        <v>1741.626173656623</v>
       </c>
       <c r="V16" t="n">
-        <v>1293.844918965529</v>
+        <v>1467.740428596145</v>
       </c>
       <c r="W16" t="n">
-        <v>1014.775254474403</v>
+        <v>1467.740428596145</v>
       </c>
       <c r="X16" t="n">
-        <v>1014.775254474403</v>
+        <v>1229.396566455828</v>
       </c>
       <c r="Y16" t="n">
-        <v>790.0395558631677</v>
+        <v>1004.660867844593</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>639.0003556695514</v>
+        <v>753.9378339883483</v>
       </c>
       <c r="C17" t="n">
-        <v>447.3229545675351</v>
+        <v>753.9378339883483</v>
       </c>
       <c r="D17" t="n">
-        <v>447.3229545675351</v>
+        <v>753.9378339883483</v>
       </c>
       <c r="E17" t="n">
-        <v>447.3229545675351</v>
+        <v>339.597618505245</v>
       </c>
       <c r="F17" t="n">
-        <v>447.3229545675351</v>
+        <v>339.597618505245</v>
       </c>
       <c r="G17" t="n">
-        <v>40.60868509638841</v>
+        <v>339.597618505245</v>
       </c>
       <c r="H17" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I17" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J17" t="n">
-        <v>135.553658593597</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K17" t="n">
-        <v>298.4006618101654</v>
+        <v>625.1764886978946</v>
       </c>
       <c r="L17" t="n">
-        <v>515.371982769831</v>
+        <v>842.1478096575601</v>
       </c>
       <c r="M17" t="n">
-        <v>769.6205054001888</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N17" t="n">
-        <v>1029.85162732878</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O17" t="n">
-        <v>1270.179715674899</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P17" t="n">
-        <v>1461.321273543602</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q17" t="n">
-        <v>1963.853751611408</v>
+        <v>1912.126487733579</v>
       </c>
       <c r="R17" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S17" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T17" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U17" t="n">
-        <v>1773.534884249812</v>
+        <v>1504.712061703778</v>
       </c>
       <c r="V17" t="n">
-        <v>1423.697329586293</v>
+        <v>1154.874507040258</v>
       </c>
       <c r="W17" t="n">
-        <v>1039.937028721461</v>
+        <v>1154.874507040258</v>
       </c>
       <c r="X17" t="n">
-        <v>1039.937028721461</v>
+        <v>1154.874507040258</v>
       </c>
       <c r="Y17" t="n">
-        <v>639.0003556695514</v>
+        <v>753.9378339883483</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I18" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J18" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K18" t="n">
-        <v>448.4817711975033</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L18" t="n">
-        <v>622.2470025288444</v>
+        <v>638.2743237270165</v>
       </c>
       <c r="M18" t="n">
-        <v>832.8623631258174</v>
+        <v>848.8896843239895</v>
       </c>
       <c r="N18" t="n">
-        <v>1054.887586803105</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O18" t="n">
-        <v>1302.678898104413</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P18" t="n">
-        <v>1450.63994526123</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q18" t="n">
         <v>1935.300869346252</v>
@@ -5627,7 +5627,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U18" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V18" t="n">
         <v>1376.470207038133</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>591.7672099448175</v>
+        <v>308.2620261200967</v>
       </c>
       <c r="C19" t="n">
-        <v>591.7672099448175</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="D19" t="n">
-        <v>432.2725652677275</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="E19" t="n">
-        <v>271.361750136047</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="F19" t="n">
-        <v>271.361750136047</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="G19" t="n">
-        <v>271.361750136047</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="H19" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I19" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J19" t="n">
-        <v>52.29045199975552</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K19" t="n">
-        <v>103.4345710706911</v>
+        <v>168.4359347020275</v>
       </c>
       <c r="L19" t="n">
-        <v>494.9723944820013</v>
+        <v>559.9737581133377</v>
       </c>
       <c r="M19" t="n">
-        <v>923.0331360730472</v>
+        <v>988.0344997043835</v>
       </c>
       <c r="N19" t="n">
-        <v>1339.368328670815</v>
+        <v>1404.369692302151</v>
       </c>
       <c r="O19" t="n">
-        <v>1704.271353674364</v>
+        <v>1789.08316818107</v>
       </c>
       <c r="P19" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q19" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R19" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S19" t="n">
-        <v>1815.134815648408</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T19" t="n">
-        <v>1579.446133774845</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U19" t="n">
-        <v>1579.446133774845</v>
+        <v>1511.996702817297</v>
       </c>
       <c r="V19" t="n">
-        <v>1305.560388714367</v>
+        <v>1238.110957756819</v>
       </c>
       <c r="W19" t="n">
-        <v>1026.490724223241</v>
+        <v>959.041293265693</v>
       </c>
       <c r="X19" t="n">
-        <v>1004.202614950097</v>
+        <v>720.6974311253764</v>
       </c>
       <c r="Y19" t="n">
-        <v>779.4669163388619</v>
+        <v>495.9617325141411</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.261782606936</v>
+        <v>523.4460354031864</v>
       </c>
       <c r="C20" t="n">
-        <v>1166.261782606936</v>
+        <v>523.4460354031864</v>
       </c>
       <c r="D20" t="n">
-        <v>1166.261782606936</v>
+        <v>523.4460354031864</v>
       </c>
       <c r="E20" t="n">
-        <v>751.9215671238323</v>
+        <v>523.4460354031864</v>
       </c>
       <c r="F20" t="n">
-        <v>330.8911550775198</v>
+        <v>523.4460354031864</v>
       </c>
       <c r="G20" t="n">
-        <v>330.8911550775198</v>
+        <v>339.597618505245</v>
       </c>
       <c r="H20" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I20" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J20" t="n">
-        <v>135.553658593597</v>
+        <v>416.0853656505564</v>
       </c>
       <c r="K20" t="n">
-        <v>298.4006618101654</v>
+        <v>578.9323688671249</v>
       </c>
       <c r="L20" t="n">
-        <v>533.6993001051034</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M20" t="n">
-        <v>787.9478227354612</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N20" t="n">
-        <v>1048.178944664052</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O20" t="n">
         <v>1550.711422731859</v>
@@ -5779,25 +5779,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S20" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T20" t="n">
-        <v>1817.044119835461</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="U20" t="n">
-        <v>1817.044119835461</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="V20" t="n">
-        <v>1566.905180437983</v>
+        <v>1334.310612898723</v>
       </c>
       <c r="W20" t="n">
-        <v>1566.905180437983</v>
+        <v>1334.310612898723</v>
       </c>
       <c r="X20" t="n">
-        <v>1166.261782606936</v>
+        <v>933.6672150676759</v>
       </c>
       <c r="Y20" t="n">
-        <v>1166.261782606936</v>
+        <v>933.6672150676759</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>687.2060646415982</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C21" t="n">
-        <v>553.210993390544</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D21" t="n">
-        <v>436.3138356099364</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E21" t="n">
-        <v>315.8210196022644</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F21" t="n">
-        <v>206.8611397847689</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G21" t="n">
         <v>100.9486199300691</v>
@@ -5828,31 +5828,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I21" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J21" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K21" t="n">
-        <v>448.4817711975033</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L21" t="n">
-        <v>622.2470025288444</v>
+        <v>638.2743237270165</v>
       </c>
       <c r="M21" t="n">
-        <v>832.8623631258174</v>
+        <v>848.8896843239895</v>
       </c>
       <c r="N21" t="n">
-        <v>1108.568211643436</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O21" t="n">
-        <v>1302.678898104414</v>
+        <v>1265.025594462254</v>
       </c>
       <c r="P21" t="n">
-        <v>1450.639945261231</v>
+        <v>1538.609661738212</v>
       </c>
       <c r="Q21" t="n">
-        <v>1935.300869346252</v>
+        <v>2023.270585823234</v>
       </c>
       <c r="R21" t="n">
         <v>2030.43425481942</v>
@@ -5873,10 +5873,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X21" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.5090972771849</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>455.6281170887303</v>
+        <v>791.3526154164225</v>
       </c>
       <c r="C22" t="n">
-        <v>455.6281170887303</v>
+        <v>620.259242978139</v>
       </c>
       <c r="D22" t="n">
-        <v>296.1334724116403</v>
+        <v>460.764598301049</v>
       </c>
       <c r="E22" t="n">
-        <v>296.1334724116403</v>
+        <v>460.764598301049</v>
       </c>
       <c r="F22" t="n">
         <v>296.1334724116403</v>
@@ -5913,19 +5913,19 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K22" t="n">
-        <v>168.4359347020275</v>
+        <v>218.247643462603</v>
       </c>
       <c r="L22" t="n">
-        <v>348.887983400795</v>
+        <v>609.7854668739133</v>
       </c>
       <c r="M22" t="n">
-        <v>776.9487249918409</v>
+        <v>1037.846208464959</v>
       </c>
       <c r="N22" t="n">
-        <v>1193.283917589609</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O22" t="n">
-        <v>1577.997393468527</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P22" t="n">
         <v>1890.762731023884</v>
@@ -5934,28 +5934,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S22" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T22" t="n">
-        <v>1750.093796456549</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U22" t="n">
-        <v>1467.344926327989</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="V22" t="n">
-        <v>1193.459181267511</v>
+        <v>1520.859827885379</v>
       </c>
       <c r="W22" t="n">
-        <v>914.3895167763849</v>
+        <v>1442.131882562019</v>
       </c>
       <c r="X22" t="n">
-        <v>676.0456546360683</v>
+        <v>1203.788020421702</v>
       </c>
       <c r="Y22" t="n">
-        <v>643.3278234827746</v>
+        <v>979.0523218104669</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>884.4969854482176</v>
+        <v>1163.043818170603</v>
       </c>
       <c r="C23" t="n">
-        <v>884.4969854482176</v>
+        <v>1163.043818170603</v>
       </c>
       <c r="D23" t="n">
-        <v>884.4969854482176</v>
+        <v>762.4555068107618</v>
       </c>
       <c r="E23" t="n">
-        <v>470.1567699651143</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="F23" t="n">
-        <v>49.12635791880181</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="G23" t="n">
-        <v>49.12635791880181</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="H23" t="n">
-        <v>49.12635791880181</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="I23" t="n">
         <v>49.12635791880181</v>
@@ -5992,25 +5992,25 @@
         <v>470.8471583037395</v>
       </c>
       <c r="K23" t="n">
-        <v>633.6941615203079</v>
+        <v>1004.816009987795</v>
       </c>
       <c r="L23" t="n">
-        <v>850.6654824799734</v>
+        <v>1221.78733094746</v>
       </c>
       <c r="M23" t="n">
-        <v>1104.914005110331</v>
+        <v>1476.035853577818</v>
       </c>
       <c r="N23" t="n">
-        <v>1495.652051683497</v>
+        <v>1736.266975506409</v>
       </c>
       <c r="O23" t="n">
-        <v>2103.590730928669</v>
+        <v>1976.595063852528</v>
       </c>
       <c r="P23" t="n">
-        <v>2294.732288797372</v>
+        <v>2167.736621721231</v>
       </c>
       <c r="Q23" t="n">
-        <v>2418.76167609962</v>
+        <v>2291.766009023479</v>
       </c>
       <c r="R23" t="n">
         <v>2456.31789594009</v>
@@ -6019,22 +6019,22 @@
         <v>2366.931179252521</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.931179252521</v>
+        <v>2153.541044268562</v>
       </c>
       <c r="U23" t="n">
-        <v>2110.031808682913</v>
+        <v>1896.641673698954</v>
       </c>
       <c r="V23" t="n">
-        <v>2096.298235995665</v>
+        <v>1546.804119035434</v>
       </c>
       <c r="W23" t="n">
-        <v>2096.298235995665</v>
+        <v>1163.043818170603</v>
       </c>
       <c r="X23" t="n">
-        <v>1695.654838164617</v>
+        <v>1163.043818170603</v>
       </c>
       <c r="Y23" t="n">
-        <v>1294.718165112707</v>
+        <v>1163.043818170603</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>49.12635791880181</v>
       </c>
       <c r="I24" t="n">
-        <v>49.12635791880181</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J24" t="n">
-        <v>341.7221096526062</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K24" t="n">
-        <v>456.9994440199168</v>
+        <v>510.6800688602474</v>
       </c>
       <c r="L24" t="n">
-        <v>630.7646753512579</v>
+        <v>684.4453001915886</v>
       </c>
       <c r="M24" t="n">
-        <v>983.0303772655429</v>
+        <v>895.0606607885616</v>
       </c>
       <c r="N24" t="n">
-        <v>1205.055600942831</v>
+        <v>1117.085884465849</v>
       </c>
       <c r="O24" t="n">
-        <v>1399.166287403808</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P24" t="n">
-        <v>1547.127334560625</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q24" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R24" t="n">
         <v>2038.951927641833</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>743.5819266809904</v>
+        <v>712.1086448218422</v>
       </c>
       <c r="C25" t="n">
-        <v>572.4885542427069</v>
+        <v>541.0152723835587</v>
       </c>
       <c r="D25" t="n">
-        <v>412.9939095656169</v>
+        <v>541.0152723835587</v>
       </c>
       <c r="E25" t="n">
-        <v>357.0485825305437</v>
+        <v>380.1044572518782</v>
       </c>
       <c r="F25" t="n">
-        <v>357.0485825305437</v>
+        <v>215.4733313624694</v>
       </c>
       <c r="G25" t="n">
-        <v>190.7016090868761</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="H25" t="n">
         <v>49.12635791880181</v>
@@ -6147,13 +6147,13 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J25" t="n">
-        <v>125.8094884535054</v>
+        <v>125.8094884535053</v>
       </c>
       <c r="K25" t="n">
         <v>383.2338011101551</v>
       </c>
       <c r="L25" t="n">
-        <v>774.7716245214651</v>
+        <v>774.7716245214654</v>
       </c>
       <c r="M25" t="n">
         <v>1202.832366112511</v>
@@ -6171,28 +6171,28 @@
         <v>2456.31789594009</v>
       </c>
       <c r="R25" t="n">
-        <v>2411.666119450782</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S25" t="n">
-        <v>2241.018456769079</v>
+        <v>2285.670233258386</v>
       </c>
       <c r="T25" t="n">
-        <v>2005.329774895515</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="U25" t="n">
-        <v>1722.580904766955</v>
+        <v>1767.232681256263</v>
       </c>
       <c r="V25" t="n">
-        <v>1448.695159706477</v>
+        <v>1493.346936195785</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.625495215351</v>
+        <v>1214.277271704659</v>
       </c>
       <c r="X25" t="n">
-        <v>931.2816330750347</v>
+        <v>975.9334095643426</v>
       </c>
       <c r="Y25" t="n">
-        <v>931.2816330750347</v>
+        <v>751.1977109531073</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1587.949848764014</v>
+        <v>1174.779455429349</v>
       </c>
       <c r="C26" t="n">
-        <v>1587.949848764014</v>
+        <v>1174.779455429349</v>
       </c>
       <c r="D26" t="n">
-        <v>1183.485918857074</v>
+        <v>1174.779455429349</v>
       </c>
       <c r="E26" t="n">
-        <v>769.1457033739709</v>
+        <v>760.4392399462457</v>
       </c>
       <c r="F26" t="n">
-        <v>348.1152913276584</v>
+        <v>339.4088278999333</v>
       </c>
       <c r="G26" t="n">
-        <v>348.1152913276584</v>
+        <v>339.4088278999333</v>
       </c>
       <c r="H26" t="n">
-        <v>57.83282134652698</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I26" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J26" t="n">
-        <v>144.0713314160103</v>
+        <v>144.0713314160104</v>
       </c>
       <c r="K26" t="n">
-        <v>306.9183346325788</v>
+        <v>588.0188886113245</v>
       </c>
       <c r="L26" t="n">
-        <v>523.8896555922444</v>
+        <v>804.99020957099</v>
       </c>
       <c r="M26" t="n">
-        <v>778.1381782226022</v>
+        <v>1059.238732201348</v>
       </c>
       <c r="N26" t="n">
-        <v>1038.369300151193</v>
+        <v>1319.469854129939</v>
       </c>
       <c r="O26" t="n">
-        <v>1278.697388497313</v>
+        <v>1559.797942476058</v>
       </c>
       <c r="P26" t="n">
-        <v>1884.437815646919</v>
+        <v>2167.736621721231</v>
       </c>
       <c r="Q26" t="n">
-        <v>2418.76167609962</v>
+        <v>2291.766009023479</v>
       </c>
       <c r="R26" t="n">
         <v>2456.31789594009</v>
       </c>
       <c r="S26" t="n">
-        <v>2389.529919646971</v>
+        <v>2405.127695310925</v>
       </c>
       <c r="T26" t="n">
-        <v>2389.529919646971</v>
+        <v>2191.737560326966</v>
       </c>
       <c r="U26" t="n">
-        <v>2389.529919646971</v>
+        <v>1934.838189757358</v>
       </c>
       <c r="V26" t="n">
-        <v>2389.529919646971</v>
+        <v>1585.000635093839</v>
       </c>
       <c r="W26" t="n">
-        <v>2389.529919646971</v>
+        <v>1585.000635093839</v>
       </c>
       <c r="X26" t="n">
-        <v>1988.886521815924</v>
+        <v>1585.000635093839</v>
       </c>
       <c r="Y26" t="n">
-        <v>1587.949848764014</v>
+        <v>1585.000635093839</v>
       </c>
     </row>
     <row r="27">
@@ -6284,10 +6284,10 @@
         <v>695.7237374640115</v>
       </c>
       <c r="C27" t="n">
-        <v>561.7286662129571</v>
+        <v>561.7286662129573</v>
       </c>
       <c r="D27" t="n">
-        <v>444.8315084323496</v>
+        <v>444.8315084323497</v>
       </c>
       <c r="E27" t="n">
         <v>324.3386924246776</v>
@@ -6299,31 +6299,31 @@
         <v>109.4662927524825</v>
       </c>
       <c r="H27" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I27" t="n">
-        <v>49.12635791880179</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J27" t="n">
-        <v>98.05370567797286</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K27" t="n">
-        <v>213.3310400452835</v>
+        <v>473.0267652180888</v>
       </c>
       <c r="L27" t="n">
-        <v>387.0962713766246</v>
+        <v>646.7919965494299</v>
       </c>
       <c r="M27" t="n">
-        <v>841.0531857039803</v>
+        <v>857.4073571464028</v>
       </c>
       <c r="N27" t="n">
-        <v>1063.078409381268</v>
+        <v>1079.43258082369</v>
       </c>
       <c r="O27" t="n">
-        <v>1257.189095842245</v>
+        <v>1273.543267284668</v>
       </c>
       <c r="P27" t="n">
-        <v>1865.127775087417</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q27" t="n">
         <v>1943.818542168665</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>925.1825726250217</v>
+        <v>706.5459344637994</v>
       </c>
       <c r="C28" t="n">
-        <v>754.0892001867383</v>
+        <v>706.5459344637994</v>
       </c>
       <c r="D28" t="n">
-        <v>594.5945555096482</v>
+        <v>547.0512897867095</v>
       </c>
       <c r="E28" t="n">
-        <v>433.6837403779677</v>
+        <v>386.140474655029</v>
       </c>
       <c r="F28" t="n">
-        <v>433.6837403779677</v>
+        <v>357.0485825305437</v>
       </c>
       <c r="G28" t="n">
-        <v>279.8794229584604</v>
+        <v>190.7016090868761</v>
       </c>
       <c r="H28" t="n">
-        <v>138.3041717903861</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I28" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J28" t="n">
-        <v>125.8094884535055</v>
+        <v>125.8094884535053</v>
       </c>
       <c r="K28" t="n">
-        <v>383.2338011101553</v>
+        <v>383.233801110155</v>
       </c>
       <c r="L28" t="n">
-        <v>774.7716245214655</v>
+        <v>774.7716245214651</v>
       </c>
       <c r="M28" t="n">
         <v>1202.832366112511</v>
       </c>
       <c r="N28" t="n">
-        <v>1619.167558710278</v>
+        <v>1619.167558710279</v>
       </c>
       <c r="O28" t="n">
         <v>2003.881034589197</v>
       </c>
       <c r="P28" t="n">
-        <v>2316.646372144553</v>
+        <v>2316.646372144554</v>
       </c>
       <c r="Q28" t="n">
         <v>2456.31789594009</v>
@@ -6411,25 +6411,25 @@
         <v>2411.666119450782</v>
       </c>
       <c r="S28" t="n">
-        <v>2411.666119450782</v>
+        <v>2241.018456769079</v>
       </c>
       <c r="T28" t="n">
-        <v>2411.666119450782</v>
+        <v>2005.329774895515</v>
       </c>
       <c r="U28" t="n">
-        <v>2128.917249322222</v>
+        <v>1722.580904766955</v>
       </c>
       <c r="V28" t="n">
-        <v>1855.031504261744</v>
+        <v>1448.695159706477</v>
       </c>
       <c r="W28" t="n">
-        <v>1575.961839770618</v>
+        <v>1169.625495215351</v>
       </c>
       <c r="X28" t="n">
-        <v>1337.617977630302</v>
+        <v>931.2816330750347</v>
       </c>
       <c r="Y28" t="n">
-        <v>1112.882279019066</v>
+        <v>706.5459344637994</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2114.506238940759</v>
+        <v>1704.381648254029</v>
       </c>
       <c r="C29" t="n">
         <v>1704.381648254029</v>
@@ -6463,52 +6463,52 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J29" t="n">
-        <v>431.6745336207738</v>
+        <v>470.8471583037395</v>
       </c>
       <c r="K29" t="n">
-        <v>594.5215368373423</v>
+        <v>633.6941615203079</v>
       </c>
       <c r="L29" t="n">
-        <v>811.4928577970078</v>
+        <v>850.6654824799734</v>
       </c>
       <c r="M29" t="n">
-        <v>1065.741380427366</v>
+        <v>1104.914005110331</v>
       </c>
       <c r="N29" t="n">
-        <v>1325.972502355957</v>
+        <v>1495.652051683497</v>
       </c>
       <c r="O29" t="n">
-        <v>1566.300590702076</v>
+        <v>2103.590730928669</v>
       </c>
       <c r="P29" t="n">
-        <v>1757.442148570778</v>
+        <v>2294.732288797372</v>
       </c>
       <c r="Q29" t="n">
-        <v>2291.766009023479</v>
+        <v>2418.76167609962</v>
       </c>
       <c r="R29" t="n">
         <v>2456.31789594009</v>
       </c>
       <c r="S29" t="n">
-        <v>2456.31789594009</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="T29" t="n">
-        <v>2456.31789594009</v>
+        <v>2153.541044268562</v>
       </c>
       <c r="U29" t="n">
-        <v>2456.31789594009</v>
+        <v>2088.14194911886</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.31789594009</v>
+        <v>2088.14194911886</v>
       </c>
       <c r="W29" t="n">
-        <v>2114.506238940759</v>
+        <v>1704.381648254029</v>
       </c>
       <c r="X29" t="n">
-        <v>2114.506238940759</v>
+        <v>1704.381648254029</v>
       </c>
       <c r="Y29" t="n">
-        <v>2114.506238940759</v>
+        <v>1704.381648254029</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>65.15367911697383</v>
       </c>
       <c r="J30" t="n">
-        <v>114.0810268761449</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K30" t="n">
-        <v>229.3583612434555</v>
+        <v>473.0267652180888</v>
       </c>
       <c r="L30" t="n">
-        <v>403.1235925747966</v>
+        <v>684.4453001915886</v>
       </c>
       <c r="M30" t="n">
-        <v>613.7389531717696</v>
+        <v>895.0606607885616</v>
       </c>
       <c r="N30" t="n">
-        <v>1063.078409381268</v>
+        <v>1117.085884465849</v>
       </c>
       <c r="O30" t="n">
-        <v>1257.189095842245</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P30" t="n">
-        <v>1865.127775087417</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q30" t="n">
         <v>1943.818542168665</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>682.20044133393</v>
+        <v>1031.07583527055</v>
       </c>
       <c r="C31" t="n">
-        <v>511.1070688956466</v>
+        <v>859.9824628322663</v>
       </c>
       <c r="D31" t="n">
-        <v>351.6124242185566</v>
+        <v>771.7683374232172</v>
       </c>
       <c r="E31" t="n">
-        <v>190.7016090868761</v>
+        <v>610.8575222915367</v>
       </c>
       <c r="F31" t="n">
-        <v>190.7016090868761</v>
+        <v>446.226396402128</v>
       </c>
       <c r="G31" t="n">
-        <v>190.7016090868761</v>
+        <v>279.8794229584604</v>
       </c>
       <c r="H31" t="n">
-        <v>49.12635791880181</v>
+        <v>138.3041717903861</v>
       </c>
       <c r="I31" t="n">
         <v>49.12635791880181</v>
       </c>
       <c r="J31" t="n">
-        <v>125.8094884535053</v>
+        <v>125.8094884535054</v>
       </c>
       <c r="K31" t="n">
         <v>383.2338011101551</v>
       </c>
       <c r="L31" t="n">
-        <v>774.7716245214654</v>
+        <v>774.7716245214656</v>
       </c>
       <c r="M31" t="n">
         <v>1202.832366112511</v>
@@ -6648,25 +6648,25 @@
         <v>2411.666119450782</v>
       </c>
       <c r="S31" t="n">
-        <v>2404.372670033254</v>
+        <v>2241.018456769079</v>
       </c>
       <c r="T31" t="n">
-        <v>2168.68398815969</v>
+        <v>2005.329774895515</v>
       </c>
       <c r="U31" t="n">
-        <v>1885.93511803113</v>
+        <v>1722.580904766955</v>
       </c>
       <c r="V31" t="n">
-        <v>1612.049372970652</v>
+        <v>1722.580904766955</v>
       </c>
       <c r="W31" t="n">
-        <v>1332.979708479526</v>
+        <v>1443.511240275829</v>
       </c>
       <c r="X31" t="n">
-        <v>1094.63584633921</v>
+        <v>1443.511240275829</v>
       </c>
       <c r="Y31" t="n">
-        <v>869.9001477279744</v>
+        <v>1218.775541664594</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>860.7563445278117</v>
+        <v>1704.381648254029</v>
       </c>
       <c r="C32" t="n">
-        <v>860.7563445278117</v>
+        <v>1704.381648254029</v>
       </c>
       <c r="D32" t="n">
-        <v>456.2924146208723</v>
+        <v>1299.917718347089</v>
       </c>
       <c r="E32" t="n">
-        <v>455.8406273899486</v>
+        <v>885.5775028639862</v>
       </c>
       <c r="F32" t="n">
-        <v>455.8406273899486</v>
+        <v>464.5470908176737</v>
       </c>
       <c r="G32" t="n">
-        <v>49.12635791880181</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="H32" t="n">
-        <v>49.12635791880181</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="I32" t="n">
         <v>49.12635791880181</v>
       </c>
       <c r="J32" t="n">
-        <v>144.0713314160104</v>
+        <v>470.8471583037395</v>
       </c>
       <c r="K32" t="n">
-        <v>306.9183346325789</v>
+        <v>1004.816009987795</v>
       </c>
       <c r="L32" t="n">
-        <v>523.8896555922444</v>
+        <v>1221.78733094746</v>
       </c>
       <c r="M32" t="n">
-        <v>778.1381782226022</v>
+        <v>1476.035853577818</v>
       </c>
       <c r="N32" t="n">
-        <v>1038.369300151193</v>
+        <v>1736.266975506409</v>
       </c>
       <c r="O32" t="n">
-        <v>1566.300590702076</v>
+        <v>1976.595063852528</v>
       </c>
       <c r="P32" t="n">
-        <v>1757.442148570778</v>
+        <v>2167.736621721231</v>
       </c>
       <c r="Q32" t="n">
         <v>2291.766009023479</v>
@@ -6730,22 +6730,22 @@
         <v>2456.31789594009</v>
       </c>
       <c r="T32" t="n">
-        <v>2456.31789594009</v>
+        <v>2242.927760956131</v>
       </c>
       <c r="U32" t="n">
-        <v>2456.31789594009</v>
+        <v>2114.602827918518</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.31789594009</v>
+        <v>2114.602827918518</v>
       </c>
       <c r="W32" t="n">
-        <v>2072.557595075259</v>
+        <v>2114.602827918518</v>
       </c>
       <c r="X32" t="n">
-        <v>1671.914197244211</v>
+        <v>2114.602827918518</v>
       </c>
       <c r="Y32" t="n">
-        <v>1270.977524192301</v>
+        <v>2114.602827918518</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>49.12635791880181</v>
       </c>
       <c r="I33" t="n">
-        <v>49.12635791880181</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J33" t="n">
-        <v>341.7221096526062</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K33" t="n">
-        <v>510.6800688602474</v>
+        <v>473.0267652180888</v>
       </c>
       <c r="L33" t="n">
-        <v>684.4453001915886</v>
+        <v>646.7919965494299</v>
       </c>
       <c r="M33" t="n">
-        <v>895.0606607885616</v>
+        <v>857.4073571464028</v>
       </c>
       <c r="N33" t="n">
-        <v>1117.085884465849</v>
+        <v>1079.43258082369</v>
       </c>
       <c r="O33" t="n">
-        <v>1311.196570926826</v>
+        <v>1273.543267284668</v>
       </c>
       <c r="P33" t="n">
         <v>1459.157618083644</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>710.6924743672516</v>
+        <v>563.4980045590629</v>
       </c>
       <c r="C34" t="n">
-        <v>539.5991019289681</v>
+        <v>392.4046321207794</v>
       </c>
       <c r="D34" t="n">
-        <v>380.1044572518782</v>
+        <v>392.4046321207794</v>
       </c>
       <c r="E34" t="n">
-        <v>380.1044572518782</v>
+        <v>392.4046321207794</v>
       </c>
       <c r="F34" t="n">
-        <v>215.4733313624694</v>
+        <v>304.6511452340537</v>
       </c>
       <c r="G34" t="n">
-        <v>49.12635791880181</v>
+        <v>138.3041717903861</v>
       </c>
       <c r="H34" t="n">
-        <v>49.12635791880181</v>
+        <v>138.3041717903861</v>
       </c>
       <c r="I34" t="n">
         <v>49.12635791880181</v>
@@ -6861,10 +6861,10 @@
         <v>125.8094884535053</v>
       </c>
       <c r="K34" t="n">
-        <v>383.2338011101551</v>
+        <v>383.233801110155</v>
       </c>
       <c r="L34" t="n">
-        <v>774.7716245214654</v>
+        <v>774.7716245214652</v>
       </c>
       <c r="M34" t="n">
         <v>1202.832366112511</v>
@@ -6882,28 +6882,28 @@
         <v>2456.31789594009</v>
       </c>
       <c r="R34" t="n">
-        <v>2411.666119450782</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S34" t="n">
-        <v>2241.018456769079</v>
+        <v>2285.670233258386</v>
       </c>
       <c r="T34" t="n">
-        <v>2005.329774895515</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="U34" t="n">
-        <v>1722.580904766955</v>
+        <v>1767.232681256263</v>
       </c>
       <c r="V34" t="n">
-        <v>1448.695159706477</v>
+        <v>1493.346936195785</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.625495215351</v>
+        <v>1214.277271704659</v>
       </c>
       <c r="X34" t="n">
-        <v>931.2816330750347</v>
+        <v>975.9334095643426</v>
       </c>
       <c r="Y34" t="n">
-        <v>898.392180761296</v>
+        <v>751.1977109531073</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>454.9489005794917</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="C35" t="n">
-        <v>454.9489005794917</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="D35" t="n">
-        <v>454.9489005794917</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="E35" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="F35" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="G35" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="H35" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I35" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J35" t="n">
-        <v>135.553658593597</v>
+        <v>416.0853656505564</v>
       </c>
       <c r="K35" t="n">
-        <v>298.4006618101654</v>
+        <v>578.9323688671249</v>
       </c>
       <c r="L35" t="n">
-        <v>515.371982769831</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M35" t="n">
-        <v>769.6205054001888</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N35" t="n">
-        <v>1029.85162732878</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O35" t="n">
-        <v>1532.384105396586</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P35" t="n">
-        <v>1723.525663265289</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q35" t="n">
         <v>1865.882367902809</v>
@@ -6964,25 +6964,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S35" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T35" t="n">
-        <v>1817.044119835461</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U35" t="n">
-        <v>1817.044119835461</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="V35" t="n">
-        <v>1817.044119835461</v>
+        <v>1244.233302105344</v>
       </c>
       <c r="W35" t="n">
-        <v>1666.750151126938</v>
+        <v>860.473001240513</v>
       </c>
       <c r="X35" t="n">
-        <v>1266.106753295891</v>
+        <v>860.473001240513</v>
       </c>
       <c r="Y35" t="n">
-        <v>865.1700802439811</v>
+        <v>459.536328188603</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>687.2060646415979</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C36" t="n">
-        <v>553.2109933905436</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D36" t="n">
         <v>436.3138356099362</v>
@@ -7007,22 +7007,22 @@
         <v>206.8611397847687</v>
       </c>
       <c r="G36" t="n">
-        <v>100.9486199300693</v>
+        <v>100.9486199300691</v>
       </c>
       <c r="H36" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I36" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J36" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K36" t="n">
-        <v>616.2154355707748</v>
+        <v>851.7642360961713</v>
       </c>
       <c r="L36" t="n">
-        <v>789.9806669021159</v>
+        <v>1081.897784372949</v>
       </c>
       <c r="M36" t="n">
         <v>1292.513144969922</v>
@@ -7037,7 +7037,7 @@
         <v>1856.610102265005</v>
       </c>
       <c r="Q36" t="n">
-        <v>1935.300869346252</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R36" t="n">
         <v>2030.43425481942</v>
@@ -7049,19 +7049,19 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U36" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V36" t="n">
-        <v>1376.470207038133</v>
+        <v>1376.470207038134</v>
       </c>
       <c r="W36" t="n">
         <v>1163.237038774462</v>
       </c>
       <c r="X36" t="n">
-        <v>986.9110569133545</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y36" t="n">
-        <v>827.5090972771845</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7386432328511</v>
+        <v>699.4328980580786</v>
       </c>
       <c r="C37" t="n">
-        <v>525.6452707945676</v>
+        <v>528.3395256197952</v>
       </c>
       <c r="D37" t="n">
-        <v>366.1506261174777</v>
+        <v>528.3395256197952</v>
       </c>
       <c r="E37" t="n">
-        <v>205.2398109857971</v>
+        <v>460.764598301049</v>
       </c>
       <c r="F37" t="n">
-        <v>40.60868509638841</v>
+        <v>296.1334724116403</v>
       </c>
       <c r="G37" t="n">
-        <v>40.60868509638841</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="H37" t="n">
-        <v>40.60868509638841</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="I37" t="n">
         <v>40.60868509638841</v>
@@ -7098,49 +7098,49 @@
         <v>52.29045199975552</v>
       </c>
       <c r="K37" t="n">
-        <v>309.7147646564052</v>
+        <v>103.4345710706911</v>
       </c>
       <c r="L37" t="n">
-        <v>387.2734768326924</v>
+        <v>494.9723944820013</v>
       </c>
       <c r="M37" t="n">
-        <v>815.3342184237383</v>
+        <v>923.0331360730472</v>
       </c>
       <c r="N37" t="n">
-        <v>1231.669411021506</v>
+        <v>1339.368328670815</v>
       </c>
       <c r="O37" t="n">
-        <v>1577.997393468527</v>
+        <v>1724.081804549733</v>
       </c>
       <c r="P37" t="n">
-        <v>1890.762731023884</v>
+        <v>2017.036691229721</v>
       </c>
       <c r="Q37" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S37" t="n">
-        <v>1862.276256743136</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T37" t="n">
-        <v>1626.587574869573</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U37" t="n">
-        <v>1626.587574869573</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="V37" t="n">
-        <v>1626.587574869573</v>
+        <v>1350.212165203675</v>
       </c>
       <c r="W37" t="n">
-        <v>1347.517910378447</v>
+        <v>1350.212165203675</v>
       </c>
       <c r="X37" t="n">
-        <v>1109.174048238131</v>
+        <v>1111.868303063358</v>
       </c>
       <c r="Y37" t="n">
-        <v>884.4383496268955</v>
+        <v>887.132604452123</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1687.15751200389</v>
+        <v>873.7799546939468</v>
       </c>
       <c r="C38" t="n">
-        <v>1687.15751200389</v>
+        <v>463.6553640072169</v>
       </c>
       <c r="D38" t="n">
-        <v>1282.693582096951</v>
+        <v>463.6553640072169</v>
       </c>
       <c r="E38" t="n">
-        <v>868.3533666138476</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="F38" t="n">
-        <v>447.3229545675351</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="G38" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="H38" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I38" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J38" t="n">
-        <v>462.3294854813261</v>
+        <v>135.553658593597</v>
       </c>
       <c r="K38" t="n">
-        <v>625.1764886978946</v>
+        <v>298.4006618101654</v>
       </c>
       <c r="L38" t="n">
-        <v>842.1478096575601</v>
+        <v>515.371982769831</v>
       </c>
       <c r="M38" t="n">
-        <v>1096.396332287918</v>
+        <v>769.6205054001888</v>
       </c>
       <c r="N38" t="n">
-        <v>1356.627454216509</v>
+        <v>1029.85162732878</v>
       </c>
       <c r="O38" t="n">
-        <v>1596.955542562628</v>
+        <v>1270.179715674899</v>
       </c>
       <c r="P38" t="n">
-        <v>1788.097100431331</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q38" t="n">
-        <v>1912.126487733579</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R38" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S38" t="n">
-        <v>1941.047538131851</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T38" t="n">
-        <v>1941.047538131851</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="U38" t="n">
-        <v>1941.047538131851</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="V38" t="n">
-        <v>1941.047538131851</v>
+        <v>1467.206565171942</v>
       </c>
       <c r="W38" t="n">
-        <v>1941.047538131851</v>
+        <v>1467.206565171942</v>
       </c>
       <c r="X38" t="n">
-        <v>1941.047538131851</v>
+        <v>1467.206565171942</v>
       </c>
       <c r="Y38" t="n">
-        <v>1941.047538131851</v>
+        <v>1284.001134358436</v>
       </c>
     </row>
     <row r="39">
@@ -7232,16 +7232,16 @@
         <v>687.2060646415983</v>
       </c>
       <c r="C39" t="n">
-        <v>553.2109933905438</v>
+        <v>553.210993390544</v>
       </c>
       <c r="D39" t="n">
-        <v>436.3138356099362</v>
+        <v>436.3138356099364</v>
       </c>
       <c r="E39" t="n">
-        <v>315.8210196022642</v>
+        <v>315.8210196022644</v>
       </c>
       <c r="F39" t="n">
-        <v>206.8611397847688</v>
+        <v>206.861139784769</v>
       </c>
       <c r="G39" t="n">
         <v>100.9486199300691</v>
@@ -7250,31 +7250,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I39" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J39" t="n">
-        <v>89.53603285555947</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K39" t="n">
-        <v>553.5611221306192</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L39" t="n">
-        <v>727.3263534619603</v>
+        <v>638.2743237270165</v>
       </c>
       <c r="M39" t="n">
-        <v>937.9417140589333</v>
+        <v>848.8896843239895</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.966937736221</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O39" t="n">
-        <v>1354.077624197198</v>
+        <v>1265.025594462254</v>
       </c>
       <c r="P39" t="n">
-        <v>1856.610102265005</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q39" t="n">
-        <v>1935.300869346252</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R39" t="n">
         <v>2030.43425481942</v>
@@ -7289,7 +7289,7 @@
         <v>1590.1817340451</v>
       </c>
       <c r="V39" t="n">
-        <v>1376.470207038133</v>
+        <v>1376.470207038134</v>
       </c>
       <c r="W39" t="n">
         <v>1163.237038774462</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1093.838681716177</v>
+        <v>929.2075558267686</v>
       </c>
       <c r="C40" t="n">
-        <v>922.745309277894</v>
+        <v>758.1141833884851</v>
       </c>
       <c r="D40" t="n">
-        <v>763.2506646008039</v>
+        <v>598.6195387113951</v>
       </c>
       <c r="E40" t="n">
-        <v>602.3398494691234</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="F40" t="n">
         <v>437.7087235797146</v>
@@ -7335,19 +7335,19 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K40" t="n">
-        <v>374.7161282877416</v>
+        <v>218.2476434626033</v>
       </c>
       <c r="L40" t="n">
-        <v>452.2748404640288</v>
+        <v>609.7854668739135</v>
       </c>
       <c r="M40" t="n">
-        <v>880.3355820550746</v>
+        <v>1037.846208464959</v>
       </c>
       <c r="N40" t="n">
-        <v>1296.670774652843</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O40" t="n">
-        <v>1577.997393468527</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P40" t="n">
         <v>1890.762731023884</v>
@@ -7359,25 +7359,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S40" t="n">
-        <v>2023.687613352899</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T40" t="n">
-        <v>2023.687613352899</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U40" t="n">
-        <v>2023.687613352899</v>
+        <v>1579.986822972365</v>
       </c>
       <c r="V40" t="n">
-        <v>2023.687613352899</v>
+        <v>1579.986822972365</v>
       </c>
       <c r="W40" t="n">
-        <v>1744.617948861774</v>
+        <v>1579.986822972365</v>
       </c>
       <c r="X40" t="n">
-        <v>1506.274086721457</v>
+        <v>1341.642960832048</v>
       </c>
       <c r="Y40" t="n">
-        <v>1281.538388110222</v>
+        <v>1116.907262220813</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1006.179542339924</v>
+        <v>339.597618505245</v>
       </c>
       <c r="C41" t="n">
-        <v>596.0549516531943</v>
+        <v>339.597618505245</v>
       </c>
       <c r="D41" t="n">
-        <v>596.0549516531943</v>
+        <v>339.597618505245</v>
       </c>
       <c r="E41" t="n">
-        <v>181.714736170091</v>
+        <v>339.597618505245</v>
       </c>
       <c r="F41" t="n">
-        <v>181.714736170091</v>
+        <v>339.597618505245</v>
       </c>
       <c r="G41" t="n">
-        <v>181.714736170091</v>
+        <v>339.597618505245</v>
       </c>
       <c r="H41" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411359</v>
       </c>
       <c r="I41" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J41" t="n">
-        <v>135.553658593597</v>
+        <v>416.0853656505564</v>
       </c>
       <c r="K41" t="n">
-        <v>298.4006618101654</v>
+        <v>578.9323688671249</v>
       </c>
       <c r="L41" t="n">
-        <v>515.371982769831</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M41" t="n">
-        <v>769.6205054001888</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N41" t="n">
-        <v>1029.85162732878</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O41" t="n">
-        <v>1270.179715674899</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P41" t="n">
-        <v>1461.321273543602</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q41" t="n">
-        <v>1963.853751611408</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R41" t="n">
         <v>2030.43425481942</v>
@@ -7441,22 +7441,22 @@
         <v>2030.43425481942</v>
       </c>
       <c r="T41" t="n">
-        <v>1817.044119835461</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="U41" t="n">
-        <v>1817.044119835461</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="V41" t="n">
-        <v>1817.044119835461</v>
+        <v>1680.596700155901</v>
       </c>
       <c r="W41" t="n">
-        <v>1817.044119835461</v>
+        <v>1296.836399291069</v>
       </c>
       <c r="X41" t="n">
-        <v>1416.400722004414</v>
+        <v>896.1930014600221</v>
       </c>
       <c r="Y41" t="n">
-        <v>1416.400722004414</v>
+        <v>495.2563284081122</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.2060646415983</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C42" t="n">
-        <v>553.2109933905438</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D42" t="n">
         <v>436.3138356099362</v>
@@ -7478,7 +7478,7 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F42" t="n">
-        <v>206.8611397847688</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G42" t="n">
         <v>100.9486199300691</v>
@@ -7487,28 +7487,28 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I42" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J42" t="n">
-        <v>89.53603285555947</v>
+        <v>105.5633540537315</v>
       </c>
       <c r="K42" t="n">
-        <v>502.1623960378346</v>
+        <v>608.095832121538</v>
       </c>
       <c r="L42" t="n">
-        <v>675.9276273691758</v>
+        <v>781.8610634528791</v>
       </c>
       <c r="M42" t="n">
-        <v>886.5429879661488</v>
+        <v>992.4764240498521</v>
       </c>
       <c r="N42" t="n">
-        <v>1108.568211643436</v>
+        <v>1214.50164772714</v>
       </c>
       <c r="O42" t="n">
-        <v>1302.678898104414</v>
+        <v>1408.612334188117</v>
       </c>
       <c r="P42" t="n">
-        <v>1450.639945261231</v>
+        <v>1856.610102265005</v>
       </c>
       <c r="Q42" t="n">
         <v>1935.300869346252</v>
@@ -7523,7 +7523,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U42" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V42" t="n">
         <v>1376.470207038133</v>
@@ -7532,10 +7532,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X42" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.509097277185</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1004.660867844593</v>
+        <v>863.0856166765188</v>
       </c>
       <c r="C43" t="n">
-        <v>833.5674954063095</v>
+        <v>691.9922442382353</v>
       </c>
       <c r="D43" t="n">
-        <v>674.0728507292195</v>
+        <v>532.4975995611453</v>
       </c>
       <c r="E43" t="n">
-        <v>513.162035597539</v>
+        <v>371.5867844294647</v>
       </c>
       <c r="F43" t="n">
-        <v>348.5309097081303</v>
+        <v>206.955658540056</v>
       </c>
       <c r="G43" t="n">
-        <v>182.1839362644627</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H43" t="n">
         <v>40.60868509638841</v>
@@ -7569,22 +7569,22 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J43" t="n">
-        <v>52.29045199975552</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K43" t="n">
-        <v>309.7147646564052</v>
+        <v>218.247643462603</v>
       </c>
       <c r="L43" t="n">
-        <v>701.2525880677155</v>
+        <v>609.7854668739133</v>
       </c>
       <c r="M43" t="n">
-        <v>784.3469801444758</v>
+        <v>1037.846208464959</v>
       </c>
       <c r="N43" t="n">
-        <v>1200.682172742244</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O43" t="n">
-        <v>1585.395648621162</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P43" t="n">
         <v>1890.762731023884</v>
@@ -7593,28 +7593,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R43" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S43" t="n">
-        <v>1815.134815648408</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T43" t="n">
-        <v>1579.446133774845</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U43" t="n">
-        <v>1579.446133774845</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="V43" t="n">
-        <v>1579.446133774845</v>
+        <v>1350.212165203675</v>
       </c>
       <c r="W43" t="n">
-        <v>1579.446133774845</v>
+        <v>1350.212165203675</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.102271634528</v>
+        <v>1111.868303063358</v>
       </c>
       <c r="Y43" t="n">
-        <v>1192.360574238637</v>
+        <v>1050.785323070563</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1585.092836721391</v>
+        <v>1160.652103459495</v>
       </c>
       <c r="C44" t="n">
-        <v>1174.968246034661</v>
+        <v>1160.652103459495</v>
       </c>
       <c r="D44" t="n">
-        <v>1174.968246034661</v>
+        <v>1160.652103459495</v>
       </c>
       <c r="E44" t="n">
-        <v>760.6280305515575</v>
+        <v>746.3118879763917</v>
       </c>
       <c r="F44" t="n">
-        <v>339.597618505245</v>
+        <v>746.3118879763917</v>
       </c>
       <c r="G44" t="n">
         <v>339.597618505245</v>
@@ -7651,13 +7651,13 @@
         <v>135.553658593597</v>
       </c>
       <c r="K44" t="n">
-        <v>578.9323688671249</v>
+        <v>298.4006618101654</v>
       </c>
       <c r="L44" t="n">
-        <v>795.9036898267904</v>
+        <v>515.371982769831</v>
       </c>
       <c r="M44" t="n">
-        <v>1050.152212457148</v>
+        <v>1017.904460837638</v>
       </c>
       <c r="N44" t="n">
         <v>1310.383334385739</v>
@@ -7675,25 +7675,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S44" t="n">
-        <v>1941.047538131851</v>
+        <v>1945.055802155374</v>
       </c>
       <c r="T44" t="n">
-        <v>1727.657403147892</v>
+        <v>1945.055802155374</v>
       </c>
       <c r="U44" t="n">
-        <v>1727.657403147892</v>
+        <v>1945.055802155374</v>
       </c>
       <c r="V44" t="n">
-        <v>1727.657403147892</v>
+        <v>1945.055802155374</v>
       </c>
       <c r="W44" t="n">
-        <v>1585.092836721391</v>
+        <v>1561.295501290542</v>
       </c>
       <c r="X44" t="n">
-        <v>1585.092836721391</v>
+        <v>1160.652103459495</v>
       </c>
       <c r="Y44" t="n">
-        <v>1585.092836721391</v>
+        <v>1160.652103459495</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>206.861139784769</v>
       </c>
       <c r="G45" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H45" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I45" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J45" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K45" t="n">
-        <v>590.1321125148161</v>
+        <v>502.1623960378346</v>
       </c>
       <c r="L45" t="n">
-        <v>763.8973438461571</v>
+        <v>675.9276273691758</v>
       </c>
       <c r="M45" t="n">
-        <v>974.5127044431301</v>
+        <v>886.5429879661488</v>
       </c>
       <c r="N45" t="n">
-        <v>1196.537928120418</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O45" t="n">
-        <v>1390.648614581395</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P45" t="n">
-        <v>1538.609661738212</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q45" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R45" t="n">
         <v>2030.43425481942</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.0866738279276</v>
+        <v>768.2967406950881</v>
       </c>
       <c r="C46" t="n">
-        <v>569.9933013896441</v>
+        <v>597.2033682568047</v>
       </c>
       <c r="D46" t="n">
-        <v>410.4986567125541</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="E46" t="n">
-        <v>410.4986567125541</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="F46" t="n">
-        <v>245.8675308231454</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="G46" t="n">
-        <v>129.7864989679727</v>
+        <v>271.361750136047</v>
       </c>
       <c r="H46" t="n">
         <v>129.7864989679727</v>
@@ -7806,52 +7806,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J46" t="n">
-        <v>117.2918156310919</v>
+        <v>52.29045199975552</v>
       </c>
       <c r="K46" t="n">
-        <v>218.247643462603</v>
+        <v>103.4345710706911</v>
       </c>
       <c r="L46" t="n">
-        <v>609.7854668739133</v>
+        <v>494.9723944820013</v>
       </c>
       <c r="M46" t="n">
-        <v>1037.846208464959</v>
+        <v>923.0331360730472</v>
       </c>
       <c r="N46" t="n">
-        <v>1454.181401062727</v>
+        <v>1319.557877795446</v>
       </c>
       <c r="O46" t="n">
-        <v>1838.894876941645</v>
+        <v>1704.271353674364</v>
       </c>
       <c r="P46" t="n">
-        <v>1890.762731023884</v>
+        <v>2017.036691229721</v>
       </c>
       <c r="Q46" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R46" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S46" t="n">
-        <v>1815.134815648408</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T46" t="n">
-        <v>1815.134815648408</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U46" t="n">
-        <v>1532.385945519848</v>
+        <v>1341.349040135593</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.50020045937</v>
+        <v>1341.349040135593</v>
       </c>
       <c r="W46" t="n">
-        <v>979.4305359682442</v>
+        <v>1194.340309229449</v>
       </c>
       <c r="X46" t="n">
-        <v>741.0866738279276</v>
+        <v>955.9964470891325</v>
       </c>
       <c r="Y46" t="n">
-        <v>741.0866738279276</v>
+        <v>955.9964470891325</v>
       </c>
     </row>
   </sheetData>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>288.4456132405464</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>123.1981990151105</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>81.56721943976873</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>391.1668118186826</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>54.22285337407214</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.93769388427953</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
         <v>208.3638319047618</v>
@@ -8856,7 +8856,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>327.915198277728</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,7 +8865,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>177.3392087095422</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>283.3653606635953</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>283.3653606635952</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9008,7 +9008,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>391.1668118186827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>126.8919395142836</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.93769388427998</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>177.8643120872855</v>
+        <v>243.5222551492415</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>382.3263543086448</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>29.31745794701189</v>
+        <v>81.56721943976896</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>54.22285337407172</v>
+        <v>38.0336400425852</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9336,13 +9336,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>298.2467763064356</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>50.31485733391468</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>283.3653606635953</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>18.51244175280041</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>264.852918910795</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>54.22285337407209</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>126.8919395142834</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>50.3148573339147</v>
       </c>
       <c r="L22" t="n">
-        <v>103.9326631540206</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
@@ -9576,7 +9576,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>127.5494547533709</v>
@@ -9640,7 +9640,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>374.8705540075622</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>131.8251764086616</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>371.3238291909624</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>38.03364004258449</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>143.0811528457698</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>283.9399535138845</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>418.7867366473779</v>
+        <v>421.0071933095655</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>245.7995492226088</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>464.623870796318</v>
+        <v>38.03364004258455</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>290.5082850553166</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>131.8251764086616</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>371.3238291909624</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>38.03364004258452</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>229.6103358911219</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>464.6238707963181</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>374.8705540075622</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>290.5082850553166</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>54.22285337407138</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>38.03364004258455</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>283.3653606635953</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>264.8529189107949</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.51244175280024</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>169.4279438113853</v>
+        <v>391.1668118186827</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>56.93769388427981</v>
       </c>
       <c r="M36" t="n">
-        <v>294.8657752230641</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10746,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10758,13 +10758,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>279.4841070574172</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>243.5222551492415</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>283.3653606635952</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.56721943976896</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>352.2704595027768</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.1529605161506</v>
+        <v>38.03364004258501</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10983,10 +10983,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>50.31485733391493</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10995,10 +10995,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>213.8261639954614</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>127.5494547533709</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>283.3653606635953</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>382.3263543086448</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>29.31745794701189</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>300.35255435855</v>
+        <v>391.1668118186827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>303.0673948687579</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>50.3148573339147</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11235,7 +11235,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>256.0598265863467</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>283.3653606635954</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>250.7918741792411</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>32.57348648435408</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>143.0811528457704</v>
+        <v>38.03364004258509</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>50.3148573339147</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
@@ -11466,16 +11466,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>315.3776268406226</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23266,7 +23266,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>88.49284952069368</v>
       </c>
       <c r="T11" t="n">
-        <v>211.2562336341194</v>
+        <v>197.2548446119422</v>
       </c>
       <c r="U11" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>32.50889272190176</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.66408801436097</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>155.235228804799</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3303768639121</v>
+        <v>96.54573109136692</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>366.3170360248748</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.99127132109724</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>160.5582394829601</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,25 +23734,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>216.2627176888665</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H17" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>33.61448883423918</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23907,10 +23907,10 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>44.56512975682297</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>213.8951953385011</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23977,19 +23977,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.6471267764352</v>
+        <v>220.6371940474732</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>98.7016291133809</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S22" t="n">
         <v>168.9411860548871</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>198.338301976088</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>190.0976887833622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>3.836862361627141</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>402.6471267764352</v>
       </c>
       <c r="H23" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>332.7429421565082</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>147.1245338601515</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>103.9158332156413</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I25" t="n">
         <v>88.28603573286843</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>22.37275299050603</v>
+        <v>37.81455089782009</v>
       </c>
       <c r="T26" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>134.1838414272743</v>
       </c>
       <c r="G28" t="n">
-        <v>12.41722946391872</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3303768639121</v>
+        <v>189.5852726657075</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>41.52915742684519</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>70.5677140753605</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>161.7206711315335</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>409.7495439696578</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>287.3796452813201</v>
       </c>
       <c r="I32" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>88.49284952069368</v>
       </c>
       <c r="T32" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3303768639121</v>
+        <v>127.2886931566753</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>76.10886261265622</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.1594986563935</v>
       </c>
       <c r="I34" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>189.9277838345216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -25174,7 +25174,7 @@
         <v>287.3796452813201</v>
       </c>
       <c r="I35" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>122.0796959486741</v>
       </c>
       <c r="W35" t="n">
-        <v>231.1316688347457</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>92.40252893480506</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.1594986563935</v>
       </c>
       <c r="I37" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S37" t="n">
-        <v>46.67002668378112</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>279.9213814272745</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>154.7678420011637</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H38" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I38" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T38" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25459,7 +25459,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>215.5539298160202</v>
       </c>
     </row>
     <row r="39">
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>44.20525872441496</v>
       </c>
       <c r="S40" t="n">
-        <v>162.2620110030313</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9213814272745</v>
+        <v>236.2514050084042</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>252.0168450640061</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -25645,10 +25645,10 @@
         <v>402.6471267764352</v>
       </c>
       <c r="H41" t="n">
-        <v>147.6846547183546</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>88.49284952069368</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U41" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I43" t="n">
         <v>88.28603573286843</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>279.9213814272745</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>75.23406120319115</v>
+        <v>162.016191432256</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.968181383287813</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U44" t="n">
         <v>254.3303768639121</v>
@@ -25927,10 +25927,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>238.783777093947</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>49.76328217260996</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>130.7403242491324</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>470188.5563488852</v>
+        <v>470188.5563488854</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>470188.5563488854</v>
+        <v>470188.5563488852</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>470188.5563488852</v>
+        <v>470188.5563488854</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>413121.9881958195</v>
+        <v>413121.9881958193</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>413121.9881958193</v>
+        <v>413121.9881958194</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>413121.9881958194</v>
+        <v>413121.9881958193</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534608.0007494114</v>
+        <v>534608.0007494115</v>
       </c>
       <c r="C2" t="n">
         <v>534608.0007494114</v>
@@ -26322,7 +26322,7 @@
         <v>534608.0007494114</v>
       </c>
       <c r="E2" t="n">
-        <v>331245.2535426214</v>
+        <v>331245.2535426212</v>
       </c>
       <c r="F2" t="n">
         <v>331245.2535426213</v>
@@ -26340,22 +26340,22 @@
         <v>366560.8001599687</v>
       </c>
       <c r="K2" t="n">
-        <v>366560.8001599688</v>
+        <v>366560.8001599689</v>
       </c>
       <c r="L2" t="n">
-        <v>366560.8001599687</v>
+        <v>366560.8001599689</v>
       </c>
       <c r="M2" t="n">
+        <v>331245.2535426213</v>
+      </c>
+      <c r="N2" t="n">
         <v>331245.2535426214</v>
-      </c>
-      <c r="N2" t="n">
-        <v>331245.2535426213</v>
       </c>
       <c r="O2" t="n">
         <v>331245.2535426213</v>
       </c>
       <c r="P2" t="n">
-        <v>331245.2535426213</v>
+        <v>331245.2535426216</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28312.8509326124</v>
+        <v>28312.85093261243</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>353297.4176434987</v>
       </c>
       <c r="E4" t="n">
-        <v>42165.96836497072</v>
+        <v>42165.96836497071</v>
       </c>
       <c r="F4" t="n">
         <v>42165.96836497073</v>
       </c>
       <c r="G4" t="n">
-        <v>42165.96836497071</v>
+        <v>42165.96836497073</v>
       </c>
       <c r="H4" t="n">
         <v>42165.96836497073</v>
@@ -26444,22 +26444,22 @@
         <v>59701.83139300434</v>
       </c>
       <c r="K4" t="n">
-        <v>59701.83139300437</v>
+        <v>59701.83139300436</v>
       </c>
       <c r="L4" t="n">
-        <v>59701.83139300437</v>
+        <v>59701.83139300435</v>
       </c>
       <c r="M4" t="n">
+        <v>42165.96836497073</v>
+      </c>
+      <c r="N4" t="n">
         <v>42165.96836497072</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>42165.96836497073</v>
       </c>
-      <c r="O4" t="n">
-        <v>42165.96836497071</v>
-      </c>
       <c r="P4" t="n">
-        <v>42165.96836497074</v>
+        <v>42165.96836497073</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41674.88356206352</v>
+        <v>41674.88356206351</v>
       </c>
       <c r="F5" t="n">
         <v>41674.88356206352</v>
@@ -26493,7 +26493,7 @@
         <v>48148.3149070977</v>
       </c>
       <c r="J5" t="n">
-        <v>48148.31490709769</v>
+        <v>48148.3149070977</v>
       </c>
       <c r="K5" t="n">
         <v>48148.3149070977</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147682.9831059127</v>
+        <v>147674.1834202834</v>
       </c>
       <c r="C6" t="n">
-        <v>147682.9831059127</v>
+        <v>147674.1834202833</v>
       </c>
       <c r="D6" t="n">
-        <v>147682.9831059127</v>
+        <v>147674.1834202833</v>
       </c>
       <c r="E6" t="n">
-        <v>-302625.1788392572</v>
+        <v>-303250.2292739982</v>
       </c>
       <c r="F6" t="n">
-        <v>247404.4016155871</v>
+        <v>246779.3511808462</v>
       </c>
       <c r="G6" t="n">
-        <v>247404.4016155871</v>
+        <v>246779.3511808462</v>
       </c>
       <c r="H6" t="n">
-        <v>247404.401615587</v>
+        <v>246779.3511808462</v>
       </c>
       <c r="I6" t="n">
-        <v>230397.8029272544</v>
+        <v>229879.7693004449</v>
       </c>
       <c r="J6" t="n">
-        <v>258710.6538598666</v>
+        <v>258192.6202330571</v>
       </c>
       <c r="K6" t="n">
-        <v>258710.6538598667</v>
+        <v>258192.6202330574</v>
       </c>
       <c r="L6" t="n">
-        <v>258710.6538598666</v>
+        <v>258192.6202330574</v>
       </c>
       <c r="M6" t="n">
-        <v>147439.2938315413</v>
+        <v>146814.2433968004</v>
       </c>
       <c r="N6" t="n">
-        <v>247404.4016155871</v>
+        <v>246779.3511808463</v>
       </c>
       <c r="O6" t="n">
-        <v>247404.4016155871</v>
+        <v>246779.3511808461</v>
       </c>
       <c r="P6" t="n">
-        <v>247404.4016155871</v>
+        <v>246779.3511808465</v>
       </c>
     </row>
   </sheetData>
@@ -26801,7 +26801,7 @@
         <v>507.608563704855</v>
       </c>
       <c r="F4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="G4" t="n">
         <v>507.608563704855</v>
@@ -26813,7 +26813,7 @@
         <v>614.0794739850226</v>
       </c>
       <c r="J4" t="n">
-        <v>614.0794739850224</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="K4" t="n">
         <v>614.0794739850226</v>
@@ -26822,10 +26822,10 @@
         <v>614.0794739850226</v>
       </c>
       <c r="M4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="N4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="O4" t="n">
         <v>507.608563704855</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.4709102801674</v>
+        <v>106.4709102801675</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.904013633544</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K11" t="n">
         <v>164.4919224409783</v>
       </c>
       <c r="L11" t="n">
-        <v>507.608563704855</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M11" t="n">
         <v>256.8166895256139</v>
@@ -35430,10 +35430,10 @@
         <v>193.0722806754571</v>
       </c>
       <c r="Q11" t="n">
-        <v>248.4804084113207</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R11" t="n">
-        <v>37.93557559643438</v>
+        <v>119.5027950362031</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J12" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K12" t="n">
-        <v>116.4417518861724</v>
+        <v>507.608563704855</v>
       </c>
       <c r="L12" t="n">
         <v>175.5204356882234</v>
       </c>
       <c r="M12" t="n">
-        <v>266.965641855863</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N12" t="n">
         <v>224.2679027043309</v>
@@ -35509,7 +35509,7 @@
         <v>149.4556031887045</v>
       </c>
       <c r="Q12" t="n">
-        <v>489.5564889747692</v>
+        <v>136.4233171986713</v>
       </c>
       <c r="R12" t="n">
         <v>96.0943287607756</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.79976454885567</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K13" t="n">
         <v>260.0245582390401</v>
@@ -35576,7 +35576,7 @@
         <v>395.4927509205154</v>
       </c>
       <c r="M13" t="n">
-        <v>411.848927648193</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N13" t="n">
         <v>85.15241530321445</v>
@@ -35585,7 +35585,7 @@
         <v>388.5994705847659</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9245833892493</v>
+        <v>229.7309805097833</v>
       </c>
       <c r="Q13" t="n">
         <v>141.0823472682186</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.904013633544</v>
+        <v>379.2693742971393</v>
       </c>
       <c r="K14" t="n">
         <v>164.4919224409783</v>
@@ -35667,7 +35667,7 @@
         <v>193.0722806754571</v>
       </c>
       <c r="Q14" t="n">
-        <v>408.6475700598054</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R14" t="n">
         <v>166.2140271884961</v>
@@ -35728,7 +35728,7 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K15" t="n">
-        <v>116.4417518861724</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="L15" t="n">
         <v>175.5204356882234</v>
@@ -35740,16 +35740,16 @@
         <v>224.2679027043309</v>
       </c>
       <c r="O15" t="n">
-        <v>322.963339979917</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P15" t="n">
         <v>149.4556031887045</v>
       </c>
       <c r="Q15" t="n">
-        <v>489.5564889747692</v>
+        <v>136.4233171986717</v>
       </c>
       <c r="R15" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>77.45770761081161</v>
+        <v>11.79976454885567</v>
       </c>
       <c r="K16" t="n">
         <v>51.66072633427837</v>
@@ -35822,7 +35822,7 @@
         <v>388.5994705847659</v>
       </c>
       <c r="P16" t="n">
-        <v>230.2560838875266</v>
+        <v>295.9140269494826</v>
       </c>
       <c r="Q16" t="n">
         <v>13.53289251484775</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.904013633544</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K17" t="n">
         <v>164.4919224409783</v>
@@ -35904,10 +35904,10 @@
         <v>193.0722806754571</v>
       </c>
       <c r="Q17" t="n">
-        <v>507.608563704855</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R17" t="n">
-        <v>67.25303354344626</v>
+        <v>119.5027950362033</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J18" t="n">
         <v>295.5512643775801</v>
@@ -35977,7 +35977,7 @@
         <v>224.2679027043309</v>
       </c>
       <c r="O18" t="n">
-        <v>250.2942538397051</v>
+        <v>234.1050405082186</v>
       </c>
       <c r="P18" t="n">
         <v>149.4556031887045</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.79976454885567</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K19" t="n">
         <v>51.66072633427837</v>
@@ -36056,13 +36056,13 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O19" t="n">
-        <v>368.5889141449989</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9245833892493</v>
+        <v>102.7066291341558</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.53289251484775</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.904013633544</v>
+        <v>379.2693742971393</v>
       </c>
       <c r="K20" t="n">
         <v>164.4919224409783</v>
       </c>
       <c r="L20" t="n">
-        <v>237.675392217109</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M20" t="n">
         <v>256.8166895256139</v>
@@ -36135,7 +36135,7 @@
         <v>262.8597191197889</v>
       </c>
       <c r="O20" t="n">
-        <v>507.608563704855</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P20" t="n">
         <v>193.0722806754571</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J21" t="n">
         <v>295.5512643775801</v>
@@ -36211,19 +36211,19 @@
         <v>212.7427884817909</v>
       </c>
       <c r="N21" t="n">
-        <v>278.490756078403</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O21" t="n">
         <v>196.0714004656334</v>
       </c>
       <c r="P21" t="n">
-        <v>149.4556031887045</v>
+        <v>276.3475427029879</v>
       </c>
       <c r="Q21" t="n">
         <v>489.5564889747692</v>
       </c>
       <c r="R21" t="n">
-        <v>96.0943287607756</v>
+        <v>7.236029289077372</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>77.45770761081161</v>
       </c>
       <c r="K22" t="n">
-        <v>51.66072633427837</v>
+        <v>101.9755836681931</v>
       </c>
       <c r="L22" t="n">
-        <v>182.2747966654217</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M22" t="n">
         <v>432.3845874657029</v>
@@ -36296,7 +36296,7 @@
         <v>388.5994705847659</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9245833892493</v>
+        <v>52.3917718002411</v>
       </c>
       <c r="Q22" t="n">
         <v>141.0823472682186</v>
@@ -36360,7 +36360,7 @@
         <v>425.980606449432</v>
       </c>
       <c r="K23" t="n">
-        <v>164.4919224409783</v>
+        <v>539.3624764485405</v>
       </c>
       <c r="L23" t="n">
         <v>219.1629504643086</v>
@@ -36369,10 +36369,10 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N23" t="n">
-        <v>394.6848955284505</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O23" t="n">
-        <v>614.0794739850226</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P23" t="n">
         <v>193.0722806754571</v>
@@ -36381,7 +36381,7 @@
         <v>125.2822093962102</v>
       </c>
       <c r="R23" t="n">
-        <v>37.93557559643438</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J24" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K24" t="n">
-        <v>116.4417518861724</v>
+        <v>154.4753919287569</v>
       </c>
       <c r="L24" t="n">
         <v>175.5204356882234</v>
       </c>
       <c r="M24" t="n">
-        <v>355.8239413275606</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N24" t="n">
         <v>224.2679027043309</v>
@@ -36460,7 +36460,7 @@
         <v>489.5564889747692</v>
       </c>
       <c r="R24" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>95.904013633544</v>
       </c>
       <c r="K26" t="n">
-        <v>164.4919224409783</v>
+        <v>448.4318759548628</v>
       </c>
       <c r="L26" t="n">
         <v>219.1629504643086</v>
@@ -36612,13 +36612,13 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P26" t="n">
-        <v>611.8590173228349</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="Q26" t="n">
-        <v>539.721071164344</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R26" t="n">
-        <v>37.93557559643438</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J27" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K27" t="n">
         <v>116.4417518861724</v>
@@ -36682,7 +36682,7 @@
         <v>175.5204356882234</v>
       </c>
       <c r="M27" t="n">
-        <v>458.5423377043996</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N27" t="n">
         <v>224.2679027043309</v>
@@ -36691,10 +36691,10 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P27" t="n">
-        <v>614.0794739850224</v>
+        <v>187.489243231289</v>
       </c>
       <c r="Q27" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R27" t="n">
         <v>96.0943287607756</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>386.4122986888606</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K29" t="n">
         <v>164.4919224409783</v>
@@ -36843,19 +36843,19 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N29" t="n">
-        <v>262.8597191197889</v>
+        <v>394.6848955284505</v>
       </c>
       <c r="O29" t="n">
-        <v>242.7556447940601</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="P29" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q29" t="n">
-        <v>539.721071164344</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R29" t="n">
-        <v>166.2140271884961</v>
+        <v>37.93557559643438</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>16.18921333148689</v>
       </c>
       <c r="J30" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K30" t="n">
         <v>116.4417518861724</v>
       </c>
       <c r="L30" t="n">
-        <v>175.5204356882234</v>
+        <v>213.5540757308079</v>
       </c>
       <c r="M30" t="n">
         <v>212.7427884817909</v>
       </c>
       <c r="N30" t="n">
-        <v>453.8782385954528</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O30" t="n">
         <v>196.0714004656334</v>
       </c>
       <c r="P30" t="n">
-        <v>614.0794739850226</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q30" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R30" t="n">
         <v>96.0943287607756</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>95.904013633544</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K32" t="n">
-        <v>164.4919224409783</v>
+        <v>539.3624764485405</v>
       </c>
       <c r="L32" t="n">
         <v>219.1629504643086</v>
@@ -37083,13 +37083,13 @@
         <v>262.8597191197889</v>
       </c>
       <c r="O32" t="n">
-        <v>533.2639298493767</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P32" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q32" t="n">
-        <v>539.721071164344</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R32" t="n">
         <v>166.2140271884961</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J33" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K33" t="n">
-        <v>170.6646052602437</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L33" t="n">
         <v>175.5204356882234</v>
@@ -37165,7 +37165,7 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P33" t="n">
-        <v>149.4556031887045</v>
+        <v>187.489243231289</v>
       </c>
       <c r="Q33" t="n">
         <v>489.5564889747692</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.904013633544</v>
+        <v>379.2693742971393</v>
       </c>
       <c r="K35" t="n">
         <v>164.4919224409783</v>
@@ -37320,13 +37320,13 @@
         <v>262.8597191197889</v>
       </c>
       <c r="O35" t="n">
-        <v>507.608563704855</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P35" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q35" t="n">
-        <v>143.7946511490105</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R35" t="n">
         <v>166.2140271884961</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J36" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K36" t="n">
-        <v>285.8696956975577</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="L36" t="n">
-        <v>175.5204356882234</v>
+        <v>232.4581295725032</v>
       </c>
       <c r="M36" t="n">
-        <v>507.608563704855</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N36" t="n">
         <v>224.2679027043309</v>
@@ -37466,10 +37466,10 @@
         <v>11.79976454885567</v>
       </c>
       <c r="K37" t="n">
-        <v>260.0245582390401</v>
+        <v>51.66072633427837</v>
       </c>
       <c r="L37" t="n">
-        <v>78.34213351140116</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M37" t="n">
         <v>432.3845874657029</v>
@@ -37478,13 +37478,13 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O37" t="n">
-        <v>349.8262448959806</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9245833892493</v>
+        <v>295.9140269494826</v>
       </c>
       <c r="Q37" t="n">
-        <v>141.0823472682186</v>
+        <v>13.53289251484775</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>425.980606449432</v>
+        <v>95.904013633544</v>
       </c>
       <c r="K38" t="n">
         <v>164.4919224409783</v>
@@ -37560,13 +37560,13 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P38" t="n">
-        <v>193.0722806754571</v>
+        <v>476.4376413390522</v>
       </c>
       <c r="Q38" t="n">
         <v>125.2822093962102</v>
       </c>
       <c r="R38" t="n">
-        <v>119.5027950362033</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J39" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K39" t="n">
-        <v>468.7122113889492</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L39" t="n">
         <v>175.5204356882234</v>
@@ -37639,10 +37639,10 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P39" t="n">
-        <v>507.608563704855</v>
+        <v>187.4892432312895</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R39" t="n">
         <v>96.0943287607756</v>
@@ -37703,10 +37703,10 @@
         <v>77.45770761081161</v>
       </c>
       <c r="K40" t="n">
-        <v>260.0245582390401</v>
+        <v>101.9755836681933</v>
       </c>
       <c r="L40" t="n">
-        <v>78.34213351140116</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M40" t="n">
         <v>432.3845874657029</v>
@@ -37715,10 +37715,10 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O40" t="n">
-        <v>284.1683018340247</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9245833892493</v>
+        <v>52.3917718002411</v>
       </c>
       <c r="Q40" t="n">
         <v>141.0823472682186</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.904013633544</v>
+        <v>379.2693742971393</v>
       </c>
       <c r="K41" t="n">
         <v>164.4919224409783</v>
@@ -37800,10 +37800,10 @@
         <v>193.0722806754571</v>
       </c>
       <c r="Q41" t="n">
-        <v>507.608563704855</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R41" t="n">
-        <v>67.25303354344626</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J42" t="n">
         <v>49.42156339310208</v>
       </c>
       <c r="K42" t="n">
-        <v>416.7943062447224</v>
+        <v>507.608563704855</v>
       </c>
       <c r="L42" t="n">
         <v>175.5204356882234</v>
@@ -37876,10 +37876,10 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P42" t="n">
-        <v>149.4556031887045</v>
+        <v>452.5229980574624</v>
       </c>
       <c r="Q42" t="n">
-        <v>489.5564889747692</v>
+        <v>79.48562331439174</v>
       </c>
       <c r="R42" t="n">
         <v>96.0943287607756</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.79976454885567</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K43" t="n">
-        <v>260.0245582390401</v>
+        <v>101.9755836681931</v>
       </c>
       <c r="L43" t="n">
         <v>395.4927509205154</v>
       </c>
       <c r="M43" t="n">
-        <v>83.93372937046499</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N43" t="n">
         <v>420.5405985836039</v>
@@ -37955,7 +37955,7 @@
         <v>388.5994705847659</v>
       </c>
       <c r="P43" t="n">
-        <v>308.4515983865878</v>
+        <v>52.3917718002411</v>
       </c>
       <c r="Q43" t="n">
         <v>141.0823472682186</v>
@@ -38019,16 +38019,16 @@
         <v>95.904013633544</v>
       </c>
       <c r="K44" t="n">
-        <v>447.8572831045736</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L44" t="n">
         <v>219.1629504643086</v>
       </c>
       <c r="M44" t="n">
-        <v>256.8166895256139</v>
+        <v>507.608563704855</v>
       </c>
       <c r="N44" t="n">
-        <v>262.8597191197889</v>
+        <v>295.433205604143</v>
       </c>
       <c r="O44" t="n">
         <v>242.7556447940601</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J45" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K45" t="n">
-        <v>259.5229047319428</v>
+        <v>154.4753919287575</v>
       </c>
       <c r="L45" t="n">
         <v>175.5204356882234</v>
@@ -38119,7 +38119,7 @@
         <v>489.5564889747692</v>
       </c>
       <c r="R45" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>77.45770761081161</v>
+        <v>11.79976454885567</v>
       </c>
       <c r="K46" t="n">
-        <v>101.9755836681931</v>
+        <v>51.66072633427837</v>
       </c>
       <c r="L46" t="n">
         <v>395.4927509205154</v>
@@ -38186,16 +38186,16 @@
         <v>432.3845874657029</v>
       </c>
       <c r="N46" t="n">
-        <v>420.5405985836039</v>
+        <v>400.530042143837</v>
       </c>
       <c r="O46" t="n">
         <v>388.5994705847659</v>
       </c>
       <c r="P46" t="n">
-        <v>52.3917718002411</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q46" t="n">
-        <v>141.0823472682186</v>
+        <v>13.53289251484775</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
